--- a/Projects/LendingClubProject/dict/LendingClubDataDictionary.xlsx
+++ b/Projects/LendingClubProject/dict/LendingClubDataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fenix\Documents\Risk management\2018\Slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nleea\Desktop\daiy\Learning\RoadToHokage\Knowledge\Knowledge\DataScience\Projects\LendingClubProject\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16571D2-329E-46C7-A7D9-65DAE522C12A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FDD111-D22E-462A-922E-6FABCEAE3318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18816" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -22,10 +22,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="384">
   <si>
     <t>id</t>
   </si>
@@ -1197,6 +1203,31 @@
   </si>
   <si>
     <t>The method by which the borrower receives their loan. Possible values are: CASH, DIRECT_PAY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The listed amount of the loan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>applied for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2258,19 +2289,19 @@
   <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145:B145"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="196.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="118.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="196.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.81640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>99</v>
       </c>
@@ -2278,7 +2309,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>291</v>
       </c>
@@ -2287,7 +2318,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>295</v>
       </c>
@@ -2296,7 +2327,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2305,7 +2336,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>285</v>
       </c>
@@ -2314,7 +2345,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2323,7 +2354,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -2332,7 +2363,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>252</v>
       </c>
@@ -2341,7 +2372,7 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -2350,7 +2381,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>296</v>
       </c>
@@ -2359,7 +2390,7 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>297</v>
       </c>
@@ -2368,7 +2399,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>105</v>
       </c>
@@ -2377,7 +2408,7 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>226</v>
       </c>
@@ -2386,7 +2417,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
@@ -2395,7 +2426,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -2404,7 +2435,7 @@
       </c>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>298</v>
       </c>
@@ -2413,7 +2444,7 @@
       </c>
       <c r="C16" s="24"/>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -2422,7 +2453,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2431,7 +2462,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>255</v>
       </c>
@@ -2440,7 +2471,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2449,7 +2480,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -2458,7 +2489,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>166</v>
       </c>
@@ -2467,7 +2498,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2476,7 +2507,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -2485,7 +2516,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,7 +2525,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2503,7 +2534,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2543,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -2521,7 +2552,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2530,7 +2561,7 @@
       </c>
       <c r="C29" s="24"/>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>277</v>
       </c>
@@ -2539,7 +2570,7 @@
       </c>
       <c r="C30" s="24"/>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -2548,7 +2579,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>287</v>
       </c>
@@ -2557,7 +2588,7 @@
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>289</v>
       </c>
@@ -2566,7 +2597,7 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -2575,7 +2606,7 @@
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -2584,7 +2615,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -2593,7 +2624,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -2604,7 +2635,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2613,7 +2644,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
@@ -2622,7 +2653,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
@@ -2631,7 +2662,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2640,7 +2671,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2649,16 +2680,16 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2698,7 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>283</v>
       </c>
@@ -2676,7 +2707,7 @@
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>1</v>
       </c>
@@ -2688,7 +2719,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>299</v>
       </c>
@@ -2700,7 +2731,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>124</v>
       </c>
@@ -2712,7 +2743,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>125</v>
       </c>
@@ -2721,7 +2752,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>111</v>
       </c>
@@ -2730,7 +2761,7 @@
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>300</v>
       </c>
@@ -2739,7 +2770,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>27</v>
       </c>
@@ -2748,7 +2779,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>108</v>
       </c>
@@ -2757,7 +2788,7 @@
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
@@ -2766,7 +2797,7 @@
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>273</v>
       </c>
@@ -2775,7 +2806,7 @@
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>301</v>
       </c>
@@ -2784,7 +2815,7 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>302</v>
       </c>
@@ -2793,7 +2824,7 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>304</v>
       </c>
@@ -2802,7 +2833,7 @@
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>305</v>
       </c>
@@ -2811,7 +2842,7 @@
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
@@ -2820,7 +2851,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>104</v>
       </c>
@@ -2829,7 +2860,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>116</v>
       </c>
@@ -2837,7 +2868,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>123</v>
       </c>
@@ -2845,7 +2876,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>117</v>
       </c>
@@ -2853,7 +2884,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>115</v>
       </c>
@@ -2861,7 +2892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>122</v>
       </c>
@@ -2869,7 +2900,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>127</v>
       </c>
@@ -2877,7 +2908,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>102</v>
       </c>
@@ -2885,7 +2916,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>126</v>
       </c>
@@ -2893,7 +2924,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>109</v>
       </c>
@@ -2901,7 +2932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>121</v>
       </c>
@@ -2909,7 +2940,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>120</v>
       </c>
@@ -2917,7 +2948,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>119</v>
       </c>
@@ -2927,7 +2958,7 @@
       <c r="C73"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>110</v>
       </c>
@@ -2935,7 +2966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
@@ -2943,7 +2974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>266</v>
       </c>
@@ -2951,7 +2982,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>269</v>
       </c>
@@ -2959,7 +2990,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>271</v>
       </c>
@@ -2967,7 +2998,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>335</v>
       </c>
@@ -2975,7 +3006,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>279</v>
       </c>
@@ -2983,7 +3014,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>281</v>
       </c>
@@ -2991,7 +3022,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>35</v>
       </c>
@@ -2999,7 +3030,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -3007,7 +3038,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>118</v>
       </c>
@@ -3015,7 +3046,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>306</v>
       </c>
@@ -3023,7 +3054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>129</v>
       </c>
@@ -3031,7 +3062,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -3039,7 +3070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>103</v>
       </c>
@@ -3047,7 +3078,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3086,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
@@ -3063,7 +3094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>225</v>
       </c>
@@ -3071,7 +3102,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>31</v>
       </c>
@@ -3079,7 +3110,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>32</v>
       </c>
@@ -3087,7 +3118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
@@ -3095,7 +3126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>107</v>
       </c>
@@ -3103,7 +3134,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>5</v>
       </c>
@@ -3111,7 +3142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>19</v>
       </c>
@@ -3119,7 +3150,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>128</v>
       </c>
@@ -3127,7 +3158,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>113</v>
       </c>
@@ -3135,7 +3166,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>112</v>
       </c>
@@ -3143,7 +3174,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -3151,7 +3182,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>307</v>
       </c>
@@ -3159,7 +3190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>275</v>
       </c>
@@ -3167,7 +3198,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>308</v>
       </c>
@@ -3175,7 +3206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>293</v>
       </c>
@@ -3183,7 +3214,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>100</v>
       </c>
@@ -3191,7 +3222,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>37</v>
       </c>
@@ -3199,7 +3230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>38</v>
       </c>
@@ -3207,7 +3238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
@@ -3215,7 +3246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>41</v>
       </c>
@@ -3223,7 +3254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -3231,7 +3262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>217</v>
       </c>
@@ -3239,7 +3270,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>16</v>
       </c>
@@ -3247,7 +3278,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>294</v>
       </c>
@@ -3255,7 +3286,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>257</v>
       </c>
@@ -3263,7 +3294,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>247</v>
       </c>
@@ -3271,7 +3302,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>310</v>
       </c>
@@ -3279,7 +3310,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>312</v>
       </c>
@@ -3287,7 +3318,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>314</v>
       </c>
@@ -3295,7 +3326,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>316</v>
       </c>
@@ -3303,7 +3334,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="18" t="s">
         <v>318</v>
       </c>
@@ -3311,7 +3342,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="18" t="s">
         <v>320</v>
       </c>
@@ -3319,7 +3350,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="18" t="s">
         <v>322</v>
       </c>
@@ -3327,7 +3358,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="18" t="s">
         <v>324</v>
       </c>
@@ -3335,7 +3366,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>336</v>
       </c>
@@ -3343,7 +3374,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="18" t="s">
         <v>327</v>
       </c>
@@ -3351,7 +3382,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="18" t="s">
         <v>329</v>
       </c>
@@ -3359,7 +3390,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="18" t="s">
         <v>331</v>
       </c>
@@ -3367,7 +3398,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
         <v>333</v>
       </c>
@@ -3375,7 +3406,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>347</v>
       </c>
@@ -3383,7 +3414,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>348</v>
       </c>
@@ -3391,7 +3422,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>349</v>
       </c>
@@ -3399,7 +3430,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>350</v>
       </c>
@@ -3407,7 +3438,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>351</v>
       </c>
@@ -3415,7 +3446,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>352</v>
       </c>
@@ -3423,7 +3454,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>353</v>
       </c>
@@ -3431,7 +3462,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>354</v>
       </c>
@@ -3439,7 +3470,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>355</v>
       </c>
@@ -3447,7 +3478,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>356</v>
       </c>
@@ -3455,7 +3486,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>357</v>
       </c>
@@ -3463,7 +3494,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
         <v>358</v>
       </c>
@@ -3471,7 +3502,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>359</v>
       </c>
@@ -3479,7 +3510,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
         <v>360</v>
       </c>
@@ -3487,7 +3518,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>361</v>
       </c>
@@ -3495,7 +3526,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>362</v>
       </c>
@@ -3503,7 +3534,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>345</v>
       </c>
@@ -3511,7 +3542,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>346</v>
       </c>
@@ -3519,7 +3550,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>363</v>
       </c>
@@ -3527,7 +3558,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>340</v>
       </c>
@@ -3535,7 +3566,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>364</v>
       </c>
@@ -3543,7 +3574,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>365</v>
       </c>
@@ -3551,7 +3582,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>366</v>
       </c>
@@ -3559,7 +3590,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B154" s="13" t="s">
         <v>168</v>
       </c>
@@ -3583,14 +3614,14 @@
       <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="235.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="235.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="235.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="235.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>219</v>
       </c>
@@ -3598,7 +3629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>183</v>
       </c>
@@ -3609,7 +3640,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>191</v>
       </c>
@@ -3620,7 +3651,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>192</v>
       </c>
@@ -3631,7 +3662,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>190</v>
       </c>
@@ -3642,7 +3673,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>285</v>
       </c>
@@ -3650,7 +3681,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>254</v>
       </c>
@@ -3660,7 +3691,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
@@ -3669,7 +3700,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>252</v>
       </c>
@@ -3679,7 +3710,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>114</v>
       </c>
@@ -3690,7 +3721,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>193</v>
       </c>
@@ -3701,7 +3732,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>195</v>
       </c>
@@ -3711,7 +3742,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>105</v>
       </c>
@@ -3721,7 +3752,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>106</v>
       </c>
@@ -3732,7 +3763,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>187</v>
       </c>
@@ -3743,7 +3774,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>196</v>
       </c>
@@ -3754,7 +3785,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>197</v>
       </c>
@@ -3765,7 +3796,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3807,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -3785,7 +3816,7 @@
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>255</v>
       </c>
@@ -3796,7 +3827,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>198</v>
       </c>
@@ -3806,7 +3837,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>239</v>
       </c>
@@ -3817,7 +3848,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>166</v>
       </c>
@@ -3828,7 +3859,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>177</v>
       </c>
@@ -3839,7 +3870,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>185</v>
       </c>
@@ -3850,7 +3881,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>173</v>
       </c>
@@ -3861,7 +3892,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>200</v>
       </c>
@@ -3872,7 +3903,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>199</v>
       </c>
@@ -3883,7 +3914,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>171</v>
       </c>
@@ -3894,7 +3925,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
@@ -3905,7 +3936,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>179</v>
       </c>
@@ -3916,7 +3947,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
@@ -3926,7 +3957,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>277</v>
       </c>
@@ -3936,7 +3967,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>161</v>
       </c>
@@ -3947,7 +3978,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>216</v>
       </c>
@@ -3958,7 +3989,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>287</v>
       </c>
@@ -3969,7 +4000,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>289</v>
       </c>
@@ -3980,7 +4011,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>201</v>
       </c>
@@ -3991,7 +4022,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +4033,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
@@ -4013,7 +4044,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -4023,7 +4054,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>186</v>
       </c>
@@ -4033,7 +4064,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>170</v>
       </c>
@@ -4043,7 +4074,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>283</v>
       </c>
@@ -4053,7 +4084,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
@@ -4063,7 +4094,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>124</v>
       </c>
@@ -4074,7 +4105,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>125</v>
       </c>
@@ -4084,7 +4115,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
@@ -4094,7 +4125,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>208</v>
       </c>
@@ -4104,7 +4135,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>160</v>
       </c>
@@ -4114,7 +4145,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -4124,7 +4155,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>101</v>
       </c>
@@ -4134,7 +4165,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>273</v>
       </c>
@@ -4143,7 +4174,7 @@
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>202</v>
       </c>
@@ -4152,7 +4183,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>203</v>
       </c>
@@ -4161,7 +4192,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>204</v>
       </c>
@@ -4170,7 +4201,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>207</v>
       </c>
@@ -4179,7 +4210,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>205</v>
       </c>
@@ -4188,7 +4219,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>206</v>
       </c>
@@ -4197,7 +4228,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>104</v>
       </c>
@@ -4206,7 +4237,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>116</v>
       </c>
@@ -4215,7 +4246,7 @@
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>123</v>
       </c>
@@ -4224,7 +4255,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>117</v>
       </c>
@@ -4233,7 +4264,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>115</v>
       </c>
@@ -4242,7 +4273,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
@@ -4251,7 +4282,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>127</v>
       </c>
@@ -4260,7 +4291,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
@@ -4269,7 +4300,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>126</v>
       </c>
@@ -4278,7 +4309,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>109</v>
       </c>
@@ -4287,7 +4318,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>121</v>
       </c>
@@ -4297,7 +4328,7 @@
       <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>120</v>
       </c>
@@ -4306,7 +4337,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>119</v>
       </c>
@@ -4315,7 +4346,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>110</v>
       </c>
@@ -4325,7 +4356,7 @@
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>266</v>
       </c>
@@ -4335,7 +4366,7 @@
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>269</v>
       </c>
@@ -4345,7 +4376,7 @@
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>271</v>
       </c>
@@ -4354,7 +4385,7 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>335</v>
       </c>
@@ -4363,7 +4394,7 @@
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>279</v>
       </c>
@@ -4373,7 +4404,7 @@
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>281</v>
       </c>
@@ -4383,7 +4414,7 @@
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>209</v>
       </c>
@@ -4392,7 +4423,7 @@
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>118</v>
       </c>
@@ -4402,7 +4433,7 @@
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>194</v>
       </c>
@@ -4412,7 +4443,7 @@
       <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>103</v>
       </c>
@@ -4421,7 +4452,7 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>210</v>
       </c>
@@ -4430,7 +4461,7 @@
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>18</v>
       </c>
@@ -4439,7 +4470,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>189</v>
       </c>
@@ -4448,7 +4479,7 @@
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>188</v>
       </c>
@@ -4457,7 +4488,7 @@
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>212</v>
       </c>
@@ -4466,7 +4497,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>213</v>
       </c>
@@ -4475,7 +4506,7 @@
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>174</v>
       </c>
@@ -4484,7 +4515,7 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>176</v>
       </c>
@@ -4494,7 +4525,7 @@
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>107</v>
       </c>
@@ -4503,7 +4534,7 @@
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>5</v>
       </c>
@@ -4513,7 +4544,7 @@
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>19</v>
       </c>
@@ -4521,7 +4552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>128</v>
       </c>
@@ -4529,7 +4560,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>113</v>
       </c>
@@ -4537,7 +4568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>112</v>
       </c>
@@ -4545,7 +4576,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>275</v>
       </c>
@@ -4553,7 +4584,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>293</v>
       </c>
@@ -4561,7 +4592,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>100</v>
       </c>
@@ -4569,7 +4600,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>217</v>
       </c>
@@ -4577,7 +4608,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>215</v>
       </c>
@@ -4585,7 +4616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>211</v>
       </c>
@@ -4593,7 +4624,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>214</v>
       </c>
@@ -4601,7 +4632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>16</v>
       </c>
@@ -4609,7 +4640,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>257</v>
       </c>
@@ -4617,7 +4648,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="22" t="s">
         <v>247</v>
       </c>
@@ -4625,7 +4656,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
         <v>310</v>
       </c>
@@ -4633,7 +4664,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
         <v>312</v>
       </c>
@@ -4641,7 +4672,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="18" t="s">
         <v>314</v>
       </c>
@@ -4649,7 +4680,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="18" t="s">
         <v>316</v>
       </c>
@@ -4657,7 +4688,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="18" t="s">
         <v>318</v>
       </c>
@@ -4665,7 +4696,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="18" t="s">
         <v>320</v>
       </c>
@@ -4673,7 +4704,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="18" t="s">
         <v>322</v>
       </c>
@@ -4681,7 +4712,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="18" t="s">
         <v>324</v>
       </c>
@@ -4689,7 +4720,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="18" t="s">
         <v>336</v>
       </c>
@@ -4697,7 +4728,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="18" t="s">
         <v>327</v>
       </c>
@@ -4705,7 +4736,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="18" t="s">
         <v>329</v>
       </c>
@@ -4713,7 +4744,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="18" t="s">
         <v>331</v>
       </c>
@@ -4721,7 +4752,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="18" t="s">
         <v>333</v>
       </c>
@@ -4729,7 +4760,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>362</v>
       </c>
@@ -4737,7 +4768,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B123" s="13" t="s">
         <v>168</v>
       </c>
@@ -4764,13 +4795,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="225.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="225.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>227</v>
       </c>
@@ -4778,7 +4809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>228</v>
       </c>
@@ -4786,7 +4817,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>229</v>
       </c>
@@ -4794,7 +4825,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>230</v>
       </c>
@@ -4802,7 +4833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -4810,7 +4841,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>231</v>
       </c>
@@ -4818,7 +4849,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>245</v>
       </c>
@@ -4826,7 +4857,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>232</v>
       </c>
@@ -4834,7 +4865,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>233</v>
       </c>
@@ -4842,7 +4873,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>234</v>
       </c>
@@ -4850,11 +4881,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
     </row>

--- a/Projects/LendingClubProject/dict/LendingClubDataDictionary.xlsx
+++ b/Projects/LendingClubProject/dict/LendingClubDataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nleea\Desktop\daiy\Learning\RoadToHokage\Knowledge\Knowledge\DataScience\Projects\LendingClubProject\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FDD111-D22E-462A-922E-6FABCEAE3318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E64E60-3908-4005-BCBD-A5C8C4A6AD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-870" yWindow="4070" windowWidth="16590" windowHeight="9040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -2288,7 +2288,7 @@
   </sheetPr>
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
@@ -3609,9 +3609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
